--- a/src/test/dataSheetsResources/AR_DataSheet/AR3_DataSheetReferences.xlsx
+++ b/src/test/dataSheetsResources/AR_DataSheet/AR3_DataSheetReferences.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poonamwadkar/Documents/ESFA_Repositories/AcademyAccountReturn/AR2_3/src/test/resources/DATA_SHEETS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poonamwadkar/Documents/ESFA_Repositories/AcademyAccountReturn/AR2_3/src/test/dataSheetsResources/AR_DataSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Donations" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,31 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>IFC3 - Additions (£000)</t>
   </si>
@@ -82,13 +59,61 @@
   </si>
   <si>
     <t>IFC12 - At close of period (£000)</t>
+  </si>
+  <si>
+    <t>D1 - Donated Fixed Assets - DfE and ESFA (EFA)   </t>
+  </si>
+  <si>
+    <t>D2 - Donated Fixed Assets (Non-DfE and ESFA (EFA))   </t>
+  </si>
+  <si>
+    <t>D3 - Donated Intangible Assets  </t>
+  </si>
+  <si>
+    <t>D4 - Other Donations (Capital)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5 - Total Capital </t>
+  </si>
+  <si>
+    <t>D6 - Other Donations (Revenue)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D7 - Total Revenue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8 - Total </t>
+  </si>
+  <si>
+    <t>D1 - Donated Fixed Assets - DfE and ESFA (EFA)</t>
+  </si>
+  <si>
+    <t>D2 - Donated Fixed Assets (Non-DfE and ESFA (EFA))</t>
+  </si>
+  <si>
+    <t>D3 - Donated Intangible Assets </t>
+  </si>
+  <si>
+    <t>D4 - Other Donations (Capital)</t>
+  </si>
+  <si>
+    <t>D5 - Total Capital</t>
+  </si>
+  <si>
+    <t>D6 - Other Donations (Revenue)</t>
+  </si>
+  <si>
+    <t>D7 - Total Revenue</t>
+  </si>
+  <si>
+    <t>D8 - Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -115,6 +140,29 @@
       <name val="Andale Mono"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0B0C0C"/>
+      <name val="Andale Mono"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -133,16 +181,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,50 +480,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="71.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -473,9 +536,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="75.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -486,61 +608,61 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2"/>
     </row>

--- a/src/test/dataSheetsResources/AR_DataSheet/AR3_DataSheetReferences.xlsx
+++ b/src/test/dataSheetsResources/AR_DataSheet/AR3_DataSheetReferences.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="920" windowWidth="33600" windowHeight="20460" tabRatio="500" firstSheet="13" activeTab="22"/>
+    <workbookView xWindow="-20" yWindow="920" windowWidth="33600" windowHeight="20460" tabRatio="500" firstSheet="43" activeTab="52"/>
   </bookViews>
   <sheets>
     <sheet name="s_Donations" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,41 @@
     <sheet name="s_st_OffPayrollArr" sheetId="23" r:id="rId21"/>
     <sheet name="s_pba_Income" sheetId="24" r:id="rId22"/>
     <sheet name="s_pba_Exp" sheetId="25" r:id="rId23"/>
+    <sheet name="bsa_ifa_Cost" sheetId="26" r:id="rId24"/>
+    <sheet name="bsa_ifa_Amortisation" sheetId="27" r:id="rId25"/>
+    <sheet name="bsa_ifa_Impairments" sheetId="28" r:id="rId26"/>
+    <sheet name="bsa_ifa_NetBookValue" sheetId="29" r:id="rId27"/>
+    <sheet name="bsa_ifa_AssetFinancing" sheetId="30" r:id="rId28"/>
+    <sheet name="bsa_ifa_AmortisationPeriods" sheetId="31" r:id="rId29"/>
+    <sheet name="bsa_nci" sheetId="32" r:id="rId30"/>
+    <sheet name="bsa_ci" sheetId="33" r:id="rId31"/>
+    <sheet name="bsa_tfa_Cost" sheetId="34" r:id="rId32"/>
+    <sheet name="bsa_tfa_Depriciation" sheetId="35" r:id="rId33"/>
+    <sheet name="bsa_tfa_Impairments" sheetId="36" r:id="rId34"/>
+    <sheet name="bsa_tfa_NetBookValue" sheetId="37" r:id="rId35"/>
+    <sheet name="bsa_tfa_AssetsFinancing" sheetId="38" r:id="rId36"/>
+    <sheet name="bsa_tfa_DepriciationPeriods" sheetId="39" r:id="rId37"/>
+    <sheet name="bsa_Debtors" sheetId="40" r:id="rId38"/>
+    <sheet name="bsa_Cash" sheetId="42" r:id="rId39"/>
+    <sheet name="auc_CapitalGrants" sheetId="43" r:id="rId40"/>
+    <sheet name="auc_Donations" sheetId="44" r:id="rId41"/>
+    <sheet name="auc_Transfers" sheetId="50" r:id="rId42"/>
+    <sheet name="auc_tfa_Cost" sheetId="45" r:id="rId43"/>
+    <sheet name="auc_tfa_Depriciation" sheetId="46" r:id="rId44"/>
+    <sheet name="auc_tfa_Impairments" sheetId="47" r:id="rId45"/>
+    <sheet name="auc_Debtors" sheetId="48" r:id="rId46"/>
+    <sheet name="auc_Other" sheetId="49" r:id="rId47"/>
+    <sheet name="lnb_to_Cost" sheetId="51" r:id="rId48"/>
+    <sheet name="lnb_to_Depriciation" sheetId="52" r:id="rId49"/>
+    <sheet name="lnb_lnbt_Cost" sheetId="53" r:id="rId50"/>
+    <sheet name="lnb_lnbt_Depriciation" sheetId="58" r:id="rId51"/>
+    <sheet name="lnb_lnbt_Impairment" sheetId="59" r:id="rId52"/>
+    <sheet name="lnb_lnbt_NetBookValue" sheetId="60" r:id="rId53"/>
+    <sheet name="lnb_to_Impairment" sheetId="54" r:id="rId54"/>
+    <sheet name="lnb_a_Cost" sheetId="55" r:id="rId55"/>
+    <sheet name="lnb_a_Depriciation" sheetId="56" r:id="rId56"/>
+    <sheet name="lnb_a_Impairment" sheetId="57" r:id="rId57"/>
+    <sheet name="bsa_Stock" sheetId="41" r:id="rId58"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -49,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="603">
   <si>
     <t>D1 - Donated Fixed Assets - DfE and ESFA (EFA)</t>
   </si>
@@ -913,6 +948,951 @@
   </si>
   <si>
     <t>Value of Arrangements (£000) - B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Original prior year closing balance (£000) - IFC1</t>
+  </si>
+  <si>
+    <t>Adjustments made to opening balance (£000) - IFC2</t>
+  </si>
+  <si>
+    <t>Additions (£000) - IFC3</t>
+  </si>
+  <si>
+    <t>Transferred in on conversion - local authority (£000) - IFC4</t>
+  </si>
+  <si>
+    <t>Transferred in on conversion - elsewhere (£000) - IFC5</t>
+  </si>
+  <si>
+    <t>Transferred in on existing academies joining the trust (£000) - IFC6</t>
+  </si>
+  <si>
+    <t>Transferred out on existing academies leaving the trust (£000) - IFC7</t>
+  </si>
+  <si>
+    <t>Donations (£000) - IFC8</t>
+  </si>
+  <si>
+    <t>Disposals (£000) - IFC9</t>
+  </si>
+  <si>
+    <t>Revaluations (£000) - IFC10</t>
+  </si>
+  <si>
+    <t>Reclassifications (£000) - IFC11</t>
+  </si>
+  <si>
+    <t>At close of period (£000) - IFC12</t>
+  </si>
+  <si>
+    <t>Software - A</t>
+  </si>
+  <si>
+    <t>Other - B</t>
+  </si>
+  <si>
+    <t>Original prior year closing balance (£000) - IFA1</t>
+  </si>
+  <si>
+    <t>Adjustments made to opening balance (£000) - IFA2</t>
+  </si>
+  <si>
+    <t>Charged in period (£000) - IFA3</t>
+  </si>
+  <si>
+    <t>Eliminated on disposal (£000) - IFA4</t>
+  </si>
+  <si>
+    <t>Transferred in on existing Academies joining the Trust (£000) - IFA5</t>
+  </si>
+  <si>
+    <t>Transferred out on existing Academies leaving the Trust (£000) - IFA6</t>
+  </si>
+  <si>
+    <t>Revaluations (£000) - IFA7</t>
+  </si>
+  <si>
+    <t>Reclassifications (£000) - IFA8</t>
+  </si>
+  <si>
+    <t>At close of period (£000) - IFA9</t>
+  </si>
+  <si>
+    <t>Original prior year closing balance (£000) - IFI1</t>
+  </si>
+  <si>
+    <t>Other Adjustments made to opening balance (£000) - IFI2</t>
+  </si>
+  <si>
+    <t>Charged in period (£000) - IFI3</t>
+  </si>
+  <si>
+    <t>Released in period (£000) - IFI4</t>
+  </si>
+  <si>
+    <t>Transferred in on existing Academies joining the Trust (£000) - IFI5</t>
+  </si>
+  <si>
+    <t>Transferred out on existing Academies leaving the Trust (£000) - IFI6</t>
+  </si>
+  <si>
+    <t>Closing Balance (£000) - IFI7</t>
+  </si>
+  <si>
+    <t>Closing net book value (£000) - IFV1</t>
+  </si>
+  <si>
+    <t>Software - IFV2</t>
+  </si>
+  <si>
+    <t>Other  - IFV3</t>
+  </si>
+  <si>
+    <t>Total  - IFV4</t>
+  </si>
+  <si>
+    <t>Owned (£000) - IFF1</t>
+  </si>
+  <si>
+    <t>Finance leased (£000) - IFF2</t>
+  </si>
+  <si>
+    <t>On-balance sheet PFI contracts (£000) - IFF3</t>
+  </si>
+  <si>
+    <t>Closing net book value (£000) - IFF4</t>
+  </si>
+  <si>
+    <t>missing ref numbers in specification</t>
+  </si>
+  <si>
+    <t>Original prior year closing balance (£000) - NCI1</t>
+  </si>
+  <si>
+    <t>Adjustments made to opening balance (£000) - NCI2</t>
+  </si>
+  <si>
+    <t>Additions (£000) - NCI3</t>
+  </si>
+  <si>
+    <t>Transferred in on conversion - local authority (£000) - NCI4</t>
+  </si>
+  <si>
+    <t>Transferred in on conversion - elsewhere (£000) - NCI5</t>
+  </si>
+  <si>
+    <t>Transferred in on existing Academies joining the Trust (£000) - NCI6</t>
+  </si>
+  <si>
+    <t>Transferred out on existing Academies leaving the Trust (£000) - NCI7</t>
+  </si>
+  <si>
+    <t>Disposals (£000) - NCI8</t>
+  </si>
+  <si>
+    <t>Impairments (£000) - NCI9</t>
+  </si>
+  <si>
+    <t>Reclassification from current asset investments (£000) - NCI10</t>
+  </si>
+  <si>
+    <t>Reclassification to current asset investments (£000) - NCI11</t>
+  </si>
+  <si>
+    <t>Reclassification within non current investments (£000) - NCI12</t>
+  </si>
+  <si>
+    <t>Period end fair value gain/(loss) (£000) - NCI13</t>
+  </si>
+  <si>
+    <t>At close of period (£000) - NCI14</t>
+  </si>
+  <si>
+    <t>Subsidiaries (at cost) - A</t>
+  </si>
+  <si>
+    <t>Investment property (at cost) - B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shares/Bonds (at cost/unlisted) - C</t>
+  </si>
+  <si>
+    <t>Other investments (at cost) - D</t>
+  </si>
+  <si>
+    <t>Investment property (at FV) - E</t>
+  </si>
+  <si>
+    <t>Managed funds (at FV) - F</t>
+  </si>
+  <si>
+    <t>Cash deposits (at FV) - G</t>
+  </si>
+  <si>
+    <t>Shares/Bonds (at FV/listed) - H</t>
+  </si>
+  <si>
+    <t>Other investments (at FV) - I</t>
+  </si>
+  <si>
+    <t>Total  - J</t>
+  </si>
+  <si>
+    <t>Original prior year closing balance Return(£000) - CUI1</t>
+  </si>
+  <si>
+    <t>Adjustments made to opening balance (£000) - CUI2</t>
+  </si>
+  <si>
+    <t>Additions (£000) - CUI3</t>
+  </si>
+  <si>
+    <t>Transferred in on conversion - local authority (£000) - CUI4</t>
+  </si>
+  <si>
+    <t>Transferred in on conversion - elsewhere (£000) - CUI5</t>
+  </si>
+  <si>
+    <t>Transferred in on existing Academies joining the Trust (£000) - CUI6</t>
+  </si>
+  <si>
+    <t>Transferred out on existing Academies leaving the Trust (£000) - CUI7</t>
+  </si>
+  <si>
+    <t>Disposals (£000) - CUI8</t>
+  </si>
+  <si>
+    <t>Impairments (£000) - CUI9</t>
+  </si>
+  <si>
+    <t>Reclassification from non-current asset investments (£000) - CUI10</t>
+  </si>
+  <si>
+    <t>Reclassification to non-current asset investments (£000) - CUI11</t>
+  </si>
+  <si>
+    <t>Reclassification within current asset investments (£000) - CUI12</t>
+  </si>
+  <si>
+    <t>Period end fair value gain/(loss) (£000) - CUI13</t>
+  </si>
+  <si>
+    <t>At close of period (£000) - CUI14</t>
+  </si>
+  <si>
+    <t>Total - J</t>
+  </si>
+  <si>
+    <t>Original prior year closing balance (£000) - TFC1</t>
+  </si>
+  <si>
+    <t>Adjustments made to opening balance (£000) - TFC2</t>
+  </si>
+  <si>
+    <t>Additions - funded from Free Schools/Priority Schools Building programme (£000) - TFC3</t>
+  </si>
+  <si>
+    <t>Additions - funded from other DFE and ESFA (EFA) capital grant (£000) - TFC4</t>
+  </si>
+  <si>
+    <t>Additions - other (£000) - TFC5</t>
+  </si>
+  <si>
+    <t>Transferred in on conversion - local authority (£000) - TFC6</t>
+  </si>
+  <si>
+    <t>Transferred in on conversion - elsewhere (£000) - TFC7</t>
+  </si>
+  <si>
+    <t>Transferred in on existing Academies joining the Trust (£000) - TFC8</t>
+  </si>
+  <si>
+    <t>Transferred out on existing Academies leaving the Trust (£000) - TFC9</t>
+  </si>
+  <si>
+    <t>Donations (DFE and ESFA (EFA)) (£000) - TFC10</t>
+  </si>
+  <si>
+    <t>Donations (non-DFE and ESFA (EFA)) (£000) - TFC11</t>
+  </si>
+  <si>
+    <t>Disposals (£000) - TFC12</t>
+  </si>
+  <si>
+    <t>Revaluations (£000) - TFC13</t>
+  </si>
+  <si>
+    <t>Valuation adjustment (£000) - TFC14</t>
+  </si>
+  <si>
+    <t>Reclassifications (£000) - TFC15</t>
+  </si>
+  <si>
+    <t>At close of period (£000) - TFC16</t>
+  </si>
+  <si>
+    <t>Freehold Land and Buildings - A</t>
+  </si>
+  <si>
+    <t>Leasehold Land and Buildings - B</t>
+  </si>
+  <si>
+    <t>Leasehold Improvements - C</t>
+  </si>
+  <si>
+    <t>Plant and Machinery - D</t>
+  </si>
+  <si>
+    <t>Furniture and Equipment - E</t>
+  </si>
+  <si>
+    <t>Computer Equipment - F</t>
+  </si>
+  <si>
+    <t>Motor Vehicles - G</t>
+  </si>
+  <si>
+    <t>Assets under construction - H</t>
+  </si>
+  <si>
+    <t>Total - I</t>
+  </si>
+  <si>
+    <t>Original prior year closing balance (£000) - TFD1</t>
+  </si>
+  <si>
+    <t>Adjustments made to opening balance (£000) - TFD2</t>
+  </si>
+  <si>
+    <t>Charged in period (£000) - TFD3</t>
+  </si>
+  <si>
+    <t>Eliminated on disposal (£000) - TFD4</t>
+  </si>
+  <si>
+    <t>Transferred in on existing Academies joining the Trust (£000) - TFD5</t>
+  </si>
+  <si>
+    <t>Transferred out on existing academies leaving the trust (£000) - TFD6</t>
+  </si>
+  <si>
+    <t>Revaluations (£000) - TFD7</t>
+  </si>
+  <si>
+    <t>Reclassifications (£000) - TFD8</t>
+  </si>
+  <si>
+    <t>At close of period (£000) - TFD9</t>
+  </si>
+  <si>
+    <t>Leasehold land and Buildings - B</t>
+  </si>
+  <si>
+    <t>Total - H</t>
+  </si>
+  <si>
+    <t>Original prior year closing balance (£000) - TFI1</t>
+  </si>
+  <si>
+    <t>Adjustments made to opening balance (£000) - TFI2</t>
+  </si>
+  <si>
+    <t>Charged in period (£000) - TFI3</t>
+  </si>
+  <si>
+    <t>Released in period (£000) - TFI4</t>
+  </si>
+  <si>
+    <t>Transferred in on existing Academies joining the Trust (£000) - TFI5</t>
+  </si>
+  <si>
+    <t>Transferred out on existing academies leaving the trust (£000) - TFI6</t>
+  </si>
+  <si>
+    <t>Closing Balance (£000) - TFI7</t>
+  </si>
+  <si>
+    <t>Furniture &amp; Equipment - E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Motor Vehicles - G</t>
+  </si>
+  <si>
+    <t>Freehold land and buildings (£000) - TFV1</t>
+  </si>
+  <si>
+    <t>Leasehold land and buildings (£000) - TFV2</t>
+  </si>
+  <si>
+    <t>Leasehold improvements (£000) - TFI3</t>
+  </si>
+  <si>
+    <t>Plant and machinery (£000) - TFI4</t>
+  </si>
+  <si>
+    <t>Furniture and equipment (£000) - TFI5</t>
+  </si>
+  <si>
+    <t>Computer equipment (£000) - TFI6</t>
+  </si>
+  <si>
+    <t>Motor vehicles (£000) - TFI7</t>
+  </si>
+  <si>
+    <t>Assets under construction (£000) - TFI8</t>
+  </si>
+  <si>
+    <t>Total (£000) - TFI9</t>
+  </si>
+  <si>
+    <t>Owned (£000) - TFF1</t>
+  </si>
+  <si>
+    <t>Finance leased (£000) - TFF2</t>
+  </si>
+  <si>
+    <t>Other(£000) - TFF3</t>
+  </si>
+  <si>
+    <t>On-balance sheet PFI contracts (£000) - TFF4</t>
+  </si>
+  <si>
+    <t>Total (£000) - TFF5</t>
+  </si>
+  <si>
+    <t>Plant &amp; Machinery - D</t>
+  </si>
+  <si>
+    <t>Single period or minimum of range (months) - DP1</t>
+  </si>
+  <si>
+    <t>Maximum of range (months) - DP2</t>
+  </si>
+  <si>
+    <t>Reducing balance rate (%) - DP3</t>
+  </si>
+  <si>
+    <t>Trade debtors before bad debt (£000) - DE1</t>
+  </si>
+  <si>
+    <t>Bad debts (£000)  - DE2</t>
+  </si>
+  <si>
+    <t>Accrued capital grant DfE/ESFA (£000) - DE3</t>
+  </si>
+  <si>
+    <t>Accrued capital grant - other (£000) - DE4</t>
+  </si>
+  <si>
+    <t>Accrued revenue grants DFE/ESFA (£000) - DE5</t>
+  </si>
+  <si>
+    <t>Accrued revenue grants - other (£000) - DE6</t>
+  </si>
+  <si>
+    <t>Prepayments (£000) - DE7</t>
+  </si>
+  <si>
+    <t>Amount due within 1 year - A</t>
+  </si>
+  <si>
+    <t>Amount due after 1 year - B</t>
+  </si>
+  <si>
+    <t>Stock - S1</t>
+  </si>
+  <si>
+    <t>Cash balance (£000) - C1</t>
+  </si>
+  <si>
+    <t>Condition Improvement Fund (CIF) (£000) - AG1</t>
+  </si>
+  <si>
+    <t>MATs School Condition Allowance (SCA) (£000) - AG2</t>
+  </si>
+  <si>
+    <t>Priority School Building Programme (PSBP) (£000) - AG3</t>
+  </si>
+  <si>
+    <t>Devolved Formula Capital Grant (DFC) (£000) - AG4</t>
+  </si>
+  <si>
+    <t>Centrally Managed Programme - Free Schools (£000) - AG5</t>
+  </si>
+  <si>
+    <t>Continuing Commitments - Building Schools for the Future (BSF) (£000) - AG6</t>
+  </si>
+  <si>
+    <t>Schools Sponsorship Development Fund (SSDF) (£000) - AG7</t>
+  </si>
+  <si>
+    <t>Other (£000) - AG8</t>
+  </si>
+  <si>
+    <t>Local Authority Capital Grants (£000) - AG9</t>
+  </si>
+  <si>
+    <t>Other Government Capital Grants (£000) - AG10</t>
+  </si>
+  <si>
+    <t>Non-Government Capital Grants (£000) - AG11</t>
+  </si>
+  <si>
+    <t>Total (£000) - AG12</t>
+  </si>
+  <si>
+    <t>Donation fixed assets (non DFE/ESFA) (£000) - AD1</t>
+  </si>
+  <si>
+    <t>Fixed assets donated by the DFE/ESFA (£000) - AD2</t>
+  </si>
+  <si>
+    <t>Donated intangible assets (£000) - AD3</t>
+  </si>
+  <si>
+    <t>Other donations (£000) - AD4</t>
+  </si>
+  <si>
+    <t>Total (£000) - AD5</t>
+  </si>
+  <si>
+    <t>Transferred in on conversion - local authority  (£000) - AT1</t>
+  </si>
+  <si>
+    <t>Transferred in on existing academies joining the trust (£000) - AT2</t>
+  </si>
+  <si>
+    <t>Transferred out on existing academies leaving the trust (£000) - AT3</t>
+  </si>
+  <si>
+    <t>Total (£000) - AT4</t>
+  </si>
+  <si>
+    <t>Original prior year closing balance as submitted in the Accounts Return (£000) - AFC1</t>
+  </si>
+  <si>
+    <t>Adjustments made to opening balance (£000) - AFC2</t>
+  </si>
+  <si>
+    <t>Additions - funded from Free Schools/Priority Schools Building programme (£000) - AFC3</t>
+  </si>
+  <si>
+    <t>Additions - funded from other DFE/ESFA capital grant (£000) - AFC4</t>
+  </si>
+  <si>
+    <t>Additions - other (£000) - AFC5</t>
+  </si>
+  <si>
+    <t>Transferred in on conversion - local authority (£000) - AFC6</t>
+  </si>
+  <si>
+    <t>Transferred in on conversion - elsewhere (£000) - AFC7</t>
+  </si>
+  <si>
+    <t>Transferred in on existing academies joining the trust (£000) - AFC8</t>
+  </si>
+  <si>
+    <t>Transferred out on existing academies leaving the trust (£000) - AFC9</t>
+  </si>
+  <si>
+    <t>Donations (DFE/ESFA) (£000) - AFC10</t>
+  </si>
+  <si>
+    <t>Donations (non-DFE/ESFA) (£000) - AFC11</t>
+  </si>
+  <si>
+    <t>Disposals (£000) - AFC12</t>
+  </si>
+  <si>
+    <t>Revaluations (£000) - AFC13</t>
+  </si>
+  <si>
+    <t>Reclassifications (£000) - AFC14</t>
+  </si>
+  <si>
+    <t>Total closing balance - AFC15</t>
+  </si>
+  <si>
+    <t>Freehold Land &amp; Buildings - A</t>
+  </si>
+  <si>
+    <t>Leasehold Land &amp; Buildings - B</t>
+  </si>
+  <si>
+    <t>Leasehold improvements - C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Furniture &amp; Equipment - </t>
+  </si>
+  <si>
+    <t>Assets under construction - G</t>
+  </si>
+  <si>
+    <t>Original prior year closing balance as submitted in the Accounts Return (£000) - AFD1</t>
+  </si>
+  <si>
+    <t>Adjustments made to opening balance (£000) - AFD2</t>
+  </si>
+  <si>
+    <t>Charged in period (£000) - AFD3</t>
+  </si>
+  <si>
+    <t>Eliminated on disposal (£000) - AFD4</t>
+  </si>
+  <si>
+    <t>Transferred in on existing academies joining the trust (£000) - AFD5</t>
+  </si>
+  <si>
+    <t>Transferred out on existing academies leaving the trust (£000) - AFD6</t>
+  </si>
+  <si>
+    <t>Revaluations (£000) - AFD7</t>
+  </si>
+  <si>
+    <t>Reclassifications (£000) - AFD8</t>
+  </si>
+  <si>
+    <t>Total closing balance - AFD9</t>
+  </si>
+  <si>
+    <t>Assets under constructions - G</t>
+  </si>
+  <si>
+    <t>Original prior year closing balance as submitted in the Accounts Return (£000) - AFI1</t>
+  </si>
+  <si>
+    <t>Adjustments made to opening balance (£000) - AFI2</t>
+  </si>
+  <si>
+    <t>Charged in period (£000) - AFI3</t>
+  </si>
+  <si>
+    <t>Released in period (£000) - AFI4</t>
+  </si>
+  <si>
+    <t>Transferred in on existing academies joining the trust (£000) - AFI5</t>
+  </si>
+  <si>
+    <t>Transferred out on existing academies leaving the trust (£000) - AFI6</t>
+  </si>
+  <si>
+    <t>Total closing balance - AFI7</t>
+  </si>
+  <si>
+    <t>Accrued capital grant DFE/ESFA (£000) - ADE1</t>
+  </si>
+  <si>
+    <t>Accrued capital grant - other (£000) - ADE2</t>
+  </si>
+  <si>
+    <t>Accrued income (£000) - ADE3</t>
+  </si>
+  <si>
+    <t>Other debtors (£000) - ADE4</t>
+  </si>
+  <si>
+    <t>Total (£000) - ADE5</t>
+  </si>
+  <si>
+    <t>Amounts due within 1 year - A</t>
+  </si>
+  <si>
+    <t>Amounts due after more than 1 year - B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refering not provided in specificaltion </t>
+  </si>
+  <si>
+    <t>Original prior year closing balance (£000) - LTC1</t>
+  </si>
+  <si>
+    <t>Adjustments made to opening balance (£000) - LTC2</t>
+  </si>
+  <si>
+    <t>Additions - funded from Free Schools/Priority Schools Building programme (£000) - LTC3</t>
+  </si>
+  <si>
+    <t>Additions - funded from other DFE and ESFA (EFA) capital grant (£000) - LTC4</t>
+  </si>
+  <si>
+    <t>Additions - other (£000) - LTC5</t>
+  </si>
+  <si>
+    <t>Transferred in on conversion - local authority (£000) - LTC6</t>
+  </si>
+  <si>
+    <t>Transferred in on conversion - elsewhere (£000) - LTC7</t>
+  </si>
+  <si>
+    <t>Transferred in on existing Academies joining the Trust (£000) - LTC8</t>
+  </si>
+  <si>
+    <t>Transferred out on existing Academies leaving the Trust (£000) - LTC9</t>
+  </si>
+  <si>
+    <t>Donations (DFE and ESFA (EFA)) (£000) - LTC10</t>
+  </si>
+  <si>
+    <t>Donations (non-DFE and ESFA (EFA)) (£000) - LTC11</t>
+  </si>
+  <si>
+    <t>Disposals (£000) - LTC12</t>
+  </si>
+  <si>
+    <t>Revaluations (£000) - LTC13</t>
+  </si>
+  <si>
+    <t>Reclassifications (£000) - LTC14</t>
+  </si>
+  <si>
+    <t>At close of period (£000) - LTC15</t>
+  </si>
+  <si>
+    <t>Assets under construction - D</t>
+  </si>
+  <si>
+    <t>Total - E</t>
+  </si>
+  <si>
+    <t>Original prior year closing balance (£000) - LTD1</t>
+  </si>
+  <si>
+    <t>Adjustments made to opening balance (£000) - LTD2</t>
+  </si>
+  <si>
+    <t>Charged in period (£000) - LTD3</t>
+  </si>
+  <si>
+    <t>Eliminated on disposal (£000) - LTD4</t>
+  </si>
+  <si>
+    <t>Transferred in on existing Academies joining the Trust (£000) - LTD5</t>
+  </si>
+  <si>
+    <t>Transferred out on existing academies leaving the trust (£000) - LTD6</t>
+  </si>
+  <si>
+    <t>Revaluations (£000) - LTD7</t>
+  </si>
+  <si>
+    <t>Reclassifications (£000) - LTD8</t>
+  </si>
+  <si>
+    <t>At close of period (£000) - LTD9</t>
+  </si>
+  <si>
+    <t>Total - D</t>
+  </si>
+  <si>
+    <t>Original prior year closing balance (£000) - LTI1</t>
+  </si>
+  <si>
+    <t>Adjustments made to opening balance (£000) - LTI2</t>
+  </si>
+  <si>
+    <t>Charged in period (£000) - LTI3</t>
+  </si>
+  <si>
+    <t>Released in period (£000) - LTI4</t>
+  </si>
+  <si>
+    <t>Transferred in on existing Academies leaving the Trust (£000) - LTI5</t>
+  </si>
+  <si>
+    <t>Transferred out on existing academies leaving the trust (£000) - LTI6</t>
+  </si>
+  <si>
+    <t>At close of period (£000) - LTI7</t>
+  </si>
+  <si>
+    <t>Original prior year closing balance (£000) - LAC1</t>
+  </si>
+  <si>
+    <t>Adjustments made to opening balance (£000) - LAC2</t>
+  </si>
+  <si>
+    <t>Additions - funded from Free Schools/Priority Schools Building programme (£000) - LAC3</t>
+  </si>
+  <si>
+    <t>Additions - funded from other DFE and ESFA (EFA) capital grant (£000) - LAC4</t>
+  </si>
+  <si>
+    <t>Additions - other (£000) - LAC5</t>
+  </si>
+  <si>
+    <t>Transferred in on conversion - local authority (£000) - LAC6</t>
+  </si>
+  <si>
+    <t>Transferred in on conversion - elsewhere (£000) - LAC7</t>
+  </si>
+  <si>
+    <t>Transferred in on existing Academies joining the Trust (£000) - LAC8</t>
+  </si>
+  <si>
+    <t>Transferred out on existing Academies leaving the Trust (£000) - LAC9</t>
+  </si>
+  <si>
+    <t>Donations (DFE and ESFA (EFA)) (£000) - LAC10</t>
+  </si>
+  <si>
+    <t>Donations (non-DFE and ESFA (EFA)) (£000) - LAC11</t>
+  </si>
+  <si>
+    <t>Disposals (£000) - LAC12</t>
+  </si>
+  <si>
+    <t>Revaluations (£000) - LAC13</t>
+  </si>
+  <si>
+    <t>Reclassifications (£000) - LAC14</t>
+  </si>
+  <si>
+    <t>At close of period (£000) - LAC15</t>
+  </si>
+  <si>
+    <t>Original prior year closing balance (£000) - LAD1</t>
+  </si>
+  <si>
+    <t>Adjustments made to opening balance (£000) - LAD2</t>
+  </si>
+  <si>
+    <t>Charged in period (£000) - LAD3</t>
+  </si>
+  <si>
+    <t>Eliminated on disposal (£000) - LAD4</t>
+  </si>
+  <si>
+    <t>Transferred in on existing Academies joining the Trust (£000) - LAD5</t>
+  </si>
+  <si>
+    <t>Transferred out on existing academies leaving the trust (£000) - LAD6</t>
+  </si>
+  <si>
+    <t>Revaluations (£000) - LAD7</t>
+  </si>
+  <si>
+    <t>Reclassifications (£000) - LAD8</t>
+  </si>
+  <si>
+    <t>At close of period (£000) - LAD9</t>
+  </si>
+  <si>
+    <t>Original prior year closing balance (£000) - LAI1</t>
+  </si>
+  <si>
+    <t>Adjustments made to opening balance (£000) - LAI2</t>
+  </si>
+  <si>
+    <t>Charged in period (£000) - LAI3</t>
+  </si>
+  <si>
+    <t>Released in period (£000) - LAI4</t>
+  </si>
+  <si>
+    <t>Transferred in on existing Academies leaving the Trust (£000) - LAI5</t>
+  </si>
+  <si>
+    <t>Transferred out on existing academies leaving the trust (£000) - LAI6</t>
+  </si>
+  <si>
+    <t>Closing Balance (£000) - LAI7</t>
+  </si>
+  <si>
+    <t>Original prior year closing balance (£000) - LLC1</t>
+  </si>
+  <si>
+    <t>Other Adjustments made to opening balance (£000) - LLC2</t>
+  </si>
+  <si>
+    <t>Additions - funded from Free Schools/Priority Schools Building programme (£000) - LLC3</t>
+  </si>
+  <si>
+    <t>Additions - funded from other DFE and ESFA (EFA) capital grant (£000) - LLC4</t>
+  </si>
+  <si>
+    <t>Additions - other (£000) - LLC5</t>
+  </si>
+  <si>
+    <t>Transferred in on conversion - local authority (£000) - LLC6</t>
+  </si>
+  <si>
+    <t>Transferred in on conversion - elsewhere (£000) - LLC7</t>
+  </si>
+  <si>
+    <t>Transferred in on existing Academies joining the Trust (£000) - LLC8</t>
+  </si>
+  <si>
+    <t>Transferred out on existing Academies leaving the Trust (£000) - LLC9</t>
+  </si>
+  <si>
+    <t>Donations (DFE and ESFA (EFA)) (£000) - LLC10</t>
+  </si>
+  <si>
+    <t>Donations (non-DFE and ESFA (EFA)) (£000) - LLC11</t>
+  </si>
+  <si>
+    <t>Disposals (£000) - LLC12</t>
+  </si>
+  <si>
+    <t>Revaluations (£000) - LLC13</t>
+  </si>
+  <si>
+    <t>Reclassifications (£000) - LLC14</t>
+  </si>
+  <si>
+    <t>At close of period (£000) - LLC15</t>
+  </si>
+  <si>
+    <t>Original prior year closing balance (£000) - LLD1</t>
+  </si>
+  <si>
+    <t>Other Adjustments made to opening balance (£000) - LLD2</t>
+  </si>
+  <si>
+    <t>Charged in period (£000) - LLD3</t>
+  </si>
+  <si>
+    <t>Eliminated on disposal (£000) - LLD4</t>
+  </si>
+  <si>
+    <t>Transferred in on existing Academies joining the Trust (£000) - LLD5</t>
+  </si>
+  <si>
+    <t>Transferred out on existing academies leaving the trust (£000) - LLD6</t>
+  </si>
+  <si>
+    <t>Revaluations (£000) - LLD7</t>
+  </si>
+  <si>
+    <t>Reclassifications (£000) - LLD8</t>
+  </si>
+  <si>
+    <t>At close of period (£000) - LLD9</t>
+  </si>
+  <si>
+    <t>Original prior year closing balance (£000) - LLI1</t>
+  </si>
+  <si>
+    <t>Other Adjustments made to opening balance (£000) - LLI2</t>
+  </si>
+  <si>
+    <t>Charged in period (£000) - LLI3</t>
+  </si>
+  <si>
+    <t>Released in period (£000) - LLI4</t>
+  </si>
+  <si>
+    <t>Transferred in on existing Academies leaving the Trust (£000) - LLI5</t>
+  </si>
+  <si>
+    <t>Transferred out on existing academies leaving the trust (£000) - LLI6</t>
+  </si>
+  <si>
+    <t>Closing Balance (£000) - LLI7</t>
+  </si>
+  <si>
+    <t>Net book value - LLV1</t>
   </si>
 </sst>
 </file>
@@ -922,7 +1902,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ ;[Red]\(#,##0\);\ \-\ \ "/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1013,6 +1993,30 @@
       <name val="Andale Mono"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Andale Mono"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1094,7 +2098,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1138,6 +2142,35 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -19263,7 +20296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -19344,6 +20377,356 @@
         <v>28</v>
       </c>
       <c r="D12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="56.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="57.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="83.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>326</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19491,6 +20874,947 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="57.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="83.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="29" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
+        <v>365</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="104.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="31" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="29" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="29" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="29" t="s">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="83.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="56.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="51.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R46" sqref="R46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="53.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="58.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="53.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
@@ -19532,6 +21856,774 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="91.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="59.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="82.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="104.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="103.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="103.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="53.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
+        <v>505</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="72.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="37" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>522</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="83.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>532</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -19646,6 +22738,626 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="104.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="83.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="83.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="56.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>522</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="104.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="37" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>522</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="57.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>532</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="56.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>522</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/dataSheetsResources/AR_DataSheet/AR3_DataSheetReferences.xlsx
+++ b/src/test/dataSheetsResources/AR_DataSheet/AR3_DataSheetReferences.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" firstSheet="76" activeTab="83"/>
+    <workbookView xWindow="-33660" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" firstSheet="91" activeTab="99"/>
   </bookViews>
   <sheets>
     <sheet name="s_Donations" sheetId="1" r:id="rId1"/>
@@ -83,19 +83,35 @@
     <sheet name="bsfod_f_UnrestrictedEndowment" sheetId="71" r:id="rId69"/>
     <sheet name="bsfod_f_TotalFunds" sheetId="72" r:id="rId70"/>
     <sheet name="bsfod_l_CommitmentUnderOL" sheetId="73" r:id="rId71"/>
-    <sheet name="bsfod_l_OpLeaseFurtherAnalysis" sheetId="74" r:id="rId72"/>
-    <sheet name="bsfod_l_CommitmentUnderFinance" sheetId="75" r:id="rId73"/>
-    <sheet name="bsfod_l_FinLeaseFurtherAnalysis" sheetId="76" r:id="rId74"/>
-    <sheet name="bsfod_o_CapCommitmentContracted" sheetId="77" r:id="rId75"/>
-    <sheet name="bsfod_o_NonCancellableContracts" sheetId="78" r:id="rId76"/>
-    <sheet name="bsfod_o_AgencyArrangement" sheetId="79" r:id="rId77"/>
-    <sheet name="bsfod_o_AnalysisOfNetAssets" sheetId="80" r:id="rId78"/>
-    <sheet name="bsfod_p_BreakdownOf" sheetId="81" r:id="rId79"/>
-    <sheet name="bsfod_p_EmployerContribution" sheetId="82" r:id="rId80"/>
-    <sheet name="bsfod_p_ChangesToThePresent" sheetId="83" r:id="rId81"/>
-    <sheet name="bsfod_p_ChangesToTheFairValue" sheetId="84" r:id="rId82"/>
-    <sheet name="bsfod_p_ReconciliationOfDefecit" sheetId="85" r:id="rId83"/>
-    <sheet name="bsfod_p_AccountsRecognised" sheetId="86" r:id="rId84"/>
+    <sheet name="bench_mato_Income" sheetId="94" r:id="rId72"/>
+    <sheet name="bsfod_l_OpLeaseFurtherAnalysis" sheetId="74" r:id="rId73"/>
+    <sheet name="bsfod_l_CommitmentUnderFinance" sheetId="75" r:id="rId74"/>
+    <sheet name="bsfod_l_FinLeaseFurtherAnalysis" sheetId="76" r:id="rId75"/>
+    <sheet name="bsfod_o_CapCommitmentContracted" sheetId="77" r:id="rId76"/>
+    <sheet name="bsfod_o_NonCancellableContracts" sheetId="78" r:id="rId77"/>
+    <sheet name="bsfod_o_AgencyArrangement" sheetId="79" r:id="rId78"/>
+    <sheet name="bsfod_o_AnalysisOfNetAssets" sheetId="80" r:id="rId79"/>
+    <sheet name="bsfod_p_BreakdownOf" sheetId="81" r:id="rId80"/>
+    <sheet name="bsfod_p_EmployerContribution" sheetId="82" r:id="rId81"/>
+    <sheet name="bsfod_p_ChangesToThePresent" sheetId="83" r:id="rId82"/>
+    <sheet name="bsfod_p_ChangesToTheFairValue" sheetId="84" r:id="rId83"/>
+    <sheet name="bsfod_p_ReconciliationOfDefecit" sheetId="85" r:id="rId84"/>
+    <sheet name="bsfod_p_AccountsRecognised" sheetId="86" r:id="rId85"/>
+    <sheet name="bsfod_p_AnalysisOfPension" sheetId="87" r:id="rId86"/>
+    <sheet name="bsfod_p_MajorAssumption" sheetId="88" r:id="rId87"/>
+    <sheet name="bsfod_p_SensitivityAnalysis" sheetId="89" r:id="rId88"/>
+    <sheet name="bsfod_p_MajorCategories" sheetId="90" r:id="rId89"/>
+    <sheet name="bsfod_p_AverageFutureLife" sheetId="91" r:id="rId90"/>
+    <sheet name="bsfod_r_ToARelatedParty" sheetId="92" r:id="rId91"/>
+    <sheet name="bsfod_r_FromARelatedParty" sheetId="93" r:id="rId92"/>
+    <sheet name="bench_mato_Expenditure" sheetId="95" r:id="rId93"/>
+    <sheet name="bench_mato_ClosingBalance" sheetId="96" r:id="rId94"/>
+    <sheet name="bench_a_Income" sheetId="97" r:id="rId95"/>
+    <sheet name="bench_a_Expenditure" sheetId="98" r:id="rId96"/>
+    <sheet name="bench_a_ClosingBalance" sheetId="99" r:id="rId97"/>
+    <sheet name="bench_ao_Income" sheetId="100" r:id="rId98"/>
+    <sheet name="bench_ao_Expenditure" sheetId="101" r:id="rId99"/>
+    <sheet name="bench_ao_ClosingBalance" sheetId="102" r:id="rId100"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -110,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="959">
   <si>
     <t>D1 - Donated Fixed Assets - DfE and ESFA (EFA)</t>
   </si>
@@ -2657,6 +2673,336 @@
   </si>
   <si>
     <t>Pension Admin Costs (£000) - RFS4</t>
+  </si>
+  <si>
+    <t>Interest cost (£000) - APR1</t>
+  </si>
+  <si>
+    <t>Interest income (£000) - APR2</t>
+  </si>
+  <si>
+    <t>Net interest expense (£000) - APR3</t>
+  </si>
+  <si>
+    <t>Actuarial gains/(losses) recognised - APR4</t>
+  </si>
+  <si>
+    <t>Rate of inflation (%) - MAP1</t>
+  </si>
+  <si>
+    <t>Rate of increase in salaries (%) - MAP2</t>
+  </si>
+  <si>
+    <t>Rate of increase of pensions in payment (%) - MAP3</t>
+  </si>
+  <si>
+    <t>Discount rate (%) - MAP4</t>
+  </si>
+  <si>
+    <t>Single or minimum of range (%)</t>
+  </si>
+  <si>
+    <t>Maximum of range (%)</t>
+  </si>
+  <si>
+    <t>Discount rate +0.1% (£000) - SA1</t>
+  </si>
+  <si>
+    <t>Discount rate - 0.1% (£000) - SA2</t>
+  </si>
+  <si>
+    <t>Mortality rate 1 year increase (£000) - SA3</t>
+  </si>
+  <si>
+    <t>Mortality rate 1 year decrease (£000) - SA4</t>
+  </si>
+  <si>
+    <t>CPI rate +0.1% (£000) - SA5</t>
+  </si>
+  <si>
+    <t>CPI rate - 0.1% (£000) - SA6</t>
+  </si>
+  <si>
+    <t>Equities (£000) - MCA1</t>
+  </si>
+  <si>
+    <t>Gilts/Government bonds (£000) - MCA2</t>
+  </si>
+  <si>
+    <t>Corporate bonds (£000) - MCA3</t>
+  </si>
+  <si>
+    <t>Property (£000) - MCA4</t>
+  </si>
+  <si>
+    <t>Cash and other liquid assets (£000) - MCA5</t>
+  </si>
+  <si>
+    <t>Derivatives (£000) - MCA6</t>
+  </si>
+  <si>
+    <t>Investment funds (£000) - MCA7</t>
+  </si>
+  <si>
+    <t>Asset backed securities (£000) - MCA8</t>
+  </si>
+  <si>
+    <t>Other (£000) - MCA9</t>
+  </si>
+  <si>
+    <t>Total (£000) - MCA10</t>
+  </si>
+  <si>
+    <t>Current pensioners: males - ALE1</t>
+  </si>
+  <si>
+    <t>Current pensioners: females - ALE2</t>
+  </si>
+  <si>
+    <t>Future pensioners retiring in 20 years: males - ALE3</t>
+  </si>
+  <si>
+    <t>Future pensioners retiring in 20 years: females - ALE4</t>
+  </si>
+  <si>
+    <t>No payments to a related party (not trustee remuneration) - RPT1</t>
+  </si>
+  <si>
+    <t>£0-£50,000 - RPT2</t>
+  </si>
+  <si>
+    <t>£50,001-£100,000 - RPT3</t>
+  </si>
+  <si>
+    <t>£100,001-£150,000 - RPT4</t>
+  </si>
+  <si>
+    <t>£150,001-£200,000 - RPT5</t>
+  </si>
+  <si>
+    <t>£200,001-£250,000 - RPT6</t>
+  </si>
+  <si>
+    <t>£250,001+ - RPT7</t>
+  </si>
+  <si>
+    <t>Total - RPT8</t>
+  </si>
+  <si>
+    <t>No payments received from a related party - RPF1</t>
+  </si>
+  <si>
+    <t>£0-£50,000 - RPF2</t>
+  </si>
+  <si>
+    <t>£50,001-£100,000 - RPF3</t>
+  </si>
+  <si>
+    <t>£100,001-£150,000 - RPF4</t>
+  </si>
+  <si>
+    <t>£150,001-£200,000 - RPF5</t>
+  </si>
+  <si>
+    <t>£200,001-£250,000 - RPF6</t>
+  </si>
+  <si>
+    <t>£250,001+ - RPF7</t>
+  </si>
+  <si>
+    <t>Total - RPF8</t>
+  </si>
+  <si>
+    <t>Number of related parties - A</t>
+  </si>
+  <si>
+    <t>Value (£000) - B</t>
+  </si>
+  <si>
+    <t>SEN (£000) - BTI3</t>
+  </si>
+  <si>
+    <t>Other income (£000) - BTI3</t>
+  </si>
+  <si>
+    <t>Start-up grants - BTI4</t>
+  </si>
+  <si>
+    <t>Other grants (£000) - BTI5</t>
+  </si>
+  <si>
+    <t>Total  - BTI6</t>
+  </si>
+  <si>
+    <t>Government source (non-grant) (£000) - BTI7</t>
+  </si>
+  <si>
+    <t>Academies (£000) - BTI8</t>
+  </si>
+  <si>
+    <t>Non- Government (£000) - BTI9</t>
+  </si>
+  <si>
+    <t>Total  - BTI10</t>
+  </si>
+  <si>
+    <t>Income from facilities and services (£000) - BTI11</t>
+  </si>
+  <si>
+    <t>Income from catering (£000) - BTI12</t>
+  </si>
+  <si>
+    <t>Receipts from supply teacher insurance claims (£000) - BTI13</t>
+  </si>
+  <si>
+    <t>Other income - revenue (£000) - BTI14</t>
+  </si>
+  <si>
+    <t>Total  - BTI15</t>
+  </si>
+  <si>
+    <t>Donations and/or voluntary funds - revenue (£000) - BTI16</t>
+  </si>
+  <si>
+    <t>Investment income (£000) - BTI17</t>
+  </si>
+  <si>
+    <t>Total revenue income (£000) - BTI18</t>
+  </si>
+  <si>
+    <t>Funds inherited on Conversions/Transfers (£000) - BTI19</t>
+  </si>
+  <si>
+    <t>Contributions from Academies to Trust (£000) - BTI20</t>
+  </si>
+  <si>
+    <t>MAT central services - A</t>
+  </si>
+  <si>
+    <t>Allocation basis - B</t>
+  </si>
+  <si>
+    <t>Teaching staff (£000) - BTE1</t>
+  </si>
+  <si>
+    <t>Supply teaching staff - extra note in guidance (£000) - BTE2</t>
+  </si>
+  <si>
+    <t>Education support staff (£000) - BTE3</t>
+  </si>
+  <si>
+    <t>Administrative and clerical staff (£000) - BTE4</t>
+  </si>
+  <si>
+    <t>Premises staff (£000) - BTE5</t>
+  </si>
+  <si>
+    <t>Catering staff (£000) - BTE6</t>
+  </si>
+  <si>
+    <t>Other staff (£000) - BTE7</t>
+  </si>
+  <si>
+    <t>Indirect employee expenses (£000) - BTE8</t>
+  </si>
+  <si>
+    <t>Staff development and training (£000) - BTE9</t>
+  </si>
+  <si>
+    <t>Supply-teacher insurance (£000) - BTE10</t>
+  </si>
+  <si>
+    <t>Staff-related insurance (£000) - BTE11</t>
+  </si>
+  <si>
+    <t>Total  - BTE12</t>
+  </si>
+  <si>
+    <t>Total revenue expenditure - BTE38</t>
+  </si>
+  <si>
+    <t>Closing balance (Restricted and Unrestricted Funds) (£000) - BTB1</t>
+  </si>
+  <si>
+    <t>DfE/EFA revenue grants (£000) - BTI1</t>
+  </si>
+  <si>
+    <t>Other DfE/EFA grants (Revenue) (£000) - BTI2</t>
+  </si>
+  <si>
+    <t>Maintenance of premises (£000) - BTE13</t>
+  </si>
+  <si>
+    <t>Cleaning and caretaking (£000) - BTE14</t>
+  </si>
+  <si>
+    <t>Water and sewerage (£000) - BTE15</t>
+  </si>
+  <si>
+    <t>Energy (£000) - BTE16</t>
+  </si>
+  <si>
+    <t>Rent and rates (£000) - BTE17</t>
+  </si>
+  <si>
+    <t>Grounds maintenance (£000) - BTE18</t>
+  </si>
+  <si>
+    <t>Other occupation costs (£000) - BTE19</t>
+  </si>
+  <si>
+    <t>Total  - BTE20</t>
+  </si>
+  <si>
+    <t>Special facilities (£000) - BTE21</t>
+  </si>
+  <si>
+    <t>Learning resources (not ICT equipment) (£000) - BTE22</t>
+  </si>
+  <si>
+    <t>ICT learning resources (£000) - BTE23</t>
+  </si>
+  <si>
+    <t>Examination fees (£000) - BTE24</t>
+  </si>
+  <si>
+    <t>Educational consultancy (£000) - BTE25</t>
+  </si>
+  <si>
+    <t>Agency supply teaching staff (£000) - BTE26</t>
+  </si>
+  <si>
+    <t>Total  - BTE27</t>
+  </si>
+  <si>
+    <t>Catering supplies (£000) - BTE28</t>
+  </si>
+  <si>
+    <t>Auditor costs (£000) - BTE29</t>
+  </si>
+  <si>
+    <t>Other insurance premiums (£000) - BTE30</t>
+  </si>
+  <si>
+    <t>Administrative supplies - non educational (£000) - BTE31</t>
+  </si>
+  <si>
+    <t>Direct revenue financing (revenue contributions to capital) (£000) - BTE32</t>
+  </si>
+  <si>
+    <t>Professional services - non-curriculum (£000) - BTE33</t>
+  </si>
+  <si>
+    <t>Total  - BTE34</t>
+  </si>
+  <si>
+    <t>Interest charges for loan and bank (£000) - BTE35</t>
+  </si>
+  <si>
+    <t>PFI charges (£000) - BTE36</t>
+  </si>
+  <si>
+    <t>Total  - BTE37</t>
   </si>
 </sst>
 </file>
@@ -2666,7 +3012,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ ;[Red]\(#,##0\);\ \-\ \ "/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2781,6 +3127,18 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2862,7 +3220,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2964,6 +3322,11 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -19782,6 +20145,49 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="54.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="50" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="50" t="s">
+        <v>917</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
@@ -25232,6 +25638,130 @@
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="49" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="49" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="49" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="49" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="49" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="49" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="49" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="49" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="49" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="49" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="49" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="49" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="49" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="49" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="49" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="49" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="49" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="49" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="49" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="50" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="50" t="s">
+        <v>917</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25318,7 +25848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
@@ -25402,7 +25932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
@@ -25480,7 +26010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -25514,12 +26044,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25572,7 +26102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -25615,7 +26145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
@@ -25686,55 +26216,6 @@
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>789</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="88.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>795</v>
       </c>
     </row>
   </sheetData>
@@ -25805,6 +26286,55 @@
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="88.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>795</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25826,7 +26356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A17"/>
   <sheetViews>
@@ -25929,7 +26459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD14"/>
   <sheetViews>
@@ -42400,7 +42930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A16"/>
   <sheetViews>
@@ -42499,12 +43029,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42536,6 +43066,208 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>847</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>852</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="61.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>858</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="52.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -42594,4 +43326,1002 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="65.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>878</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="77.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>896</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="58.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>896</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="49" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="49" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="49" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="49" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="49" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="49" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="49" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="49" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="49" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="49" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="49" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="49" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="50" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="50" t="s">
+        <v>917</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="54.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="50" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="50" t="s">
+        <v>917</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A1:A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="50.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>915</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>958</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I39" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="54.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="50" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="50" t="s">
+        <v>917</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>915</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>958</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/dataSheetsResources/AR_DataSheet/AR3_DataSheetReferences.xlsx
+++ b/src/test/dataSheetsResources/AR_DataSheet/AR3_DataSheetReferences.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33660" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" firstSheet="91" activeTab="99"/>
+    <workbookView xWindow="-33600" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" firstSheet="91" activeTab="100"/>
   </bookViews>
   <sheets>
     <sheet name="s_Donations" sheetId="1" r:id="rId1"/>
@@ -112,6 +112,7 @@
     <sheet name="bench_ao_Income" sheetId="100" r:id="rId98"/>
     <sheet name="bench_ao_Expenditure" sheetId="101" r:id="rId99"/>
     <sheet name="bench_ao_ClosingBalance" sheetId="102" r:id="rId100"/>
+    <sheet name="Sheet1" sheetId="103" r:id="rId101"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -20149,7 +20150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -20184,6 +20185,20 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W43" sqref="W43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/test/dataSheetsResources/AR_DataSheet/AR3_DataSheetReferences.xlsx
+++ b/src/test/dataSheetsResources/AR_DataSheet/AR3_DataSheetReferences.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" firstSheet="91" activeTab="100"/>
+    <workbookView xWindow="-33600" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" firstSheet="99" activeTab="109"/>
   </bookViews>
   <sheets>
     <sheet name="s_Donations" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,16 @@
     <sheet name="bench_ao_Income" sheetId="100" r:id="rId98"/>
     <sheet name="bench_ao_Expenditure" sheetId="101" r:id="rId99"/>
     <sheet name="bench_ao_ClosingBalance" sheetId="102" r:id="rId100"/>
-    <sheet name="Sheet1" sheetId="103" r:id="rId101"/>
+    <sheet name="count_c_Income" sheetId="103" r:id="rId101"/>
+    <sheet name="count_c_Expenditure" sheetId="104" r:id="rId102"/>
+    <sheet name="count_c_Debtors" sheetId="105" r:id="rId103"/>
+    <sheet name="count_c_Liabilities" sheetId="106" r:id="rId104"/>
+    <sheet name="count_c_Other" sheetId="107" r:id="rId105"/>
+    <sheet name="count_ct_Income" sheetId="108" r:id="rId106"/>
+    <sheet name="count_ct_Expenditure" sheetId="109" r:id="rId107"/>
+    <sheet name="count_ct_Debtors" sheetId="110" r:id="rId108"/>
+    <sheet name="count_ct_Liabilities" sheetId="111" r:id="rId109"/>
+    <sheet name="count_ct_Other" sheetId="112" r:id="rId110"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -127,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="1045">
   <si>
     <t>D1 - Donated Fixed Assets - DfE and ESFA (EFA)</t>
   </si>
@@ -3004,6 +3013,265 @@
   </si>
   <si>
     <t>Total  - BTE37</t>
+  </si>
+  <si>
+    <t>Donations (£000) - CI1</t>
+  </si>
+  <si>
+    <t>Capital Grants - DfE (ESFA) (£'000) - CI2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Capital Grants - DfE Group (£'000) - CI3</t>
+  </si>
+  <si>
+    <t>Other capital grants (£000) - CI4</t>
+  </si>
+  <si>
+    <t>Other trading activities (£000) - CI5</t>
+  </si>
+  <si>
+    <t>Investment income (£000) - CI6</t>
+  </si>
+  <si>
+    <t>Revenue Grants - DfE (ESFA) (£'000) - CI7</t>
+  </si>
+  <si>
+    <t>Revenue Grants DfE Group (£'000) - CI8</t>
+  </si>
+  <si>
+    <t>Other revenue grants (£000) - CI9</t>
+  </si>
+  <si>
+    <t>Other income (£000) - CI10</t>
+  </si>
+  <si>
+    <t>Provision of boarding activities (£000) - CI11</t>
+  </si>
+  <si>
+    <t>Wages and salaries (£000) - CE1</t>
+  </si>
+  <si>
+    <t>Employer's pension contributions (£000) - CE2</t>
+  </si>
+  <si>
+    <t>Operating lease rentals - buildings (£000) - CE3</t>
+  </si>
+  <si>
+    <t>Operating lease rentals - land (£000) - CE4</t>
+  </si>
+  <si>
+    <t>Finance lease interest payments (£000) - CE5</t>
+  </si>
+  <si>
+    <t>Rates (£'000) - CE6</t>
+  </si>
+  <si>
+    <t>Purchase of goods and services (£000) - CE7</t>
+  </si>
+  <si>
+    <t>Boarding activities (£000) - CE8</t>
+  </si>
+  <si>
+    <t>Trade debtors before bad debt (£'000) - CD1</t>
+  </si>
+  <si>
+    <t>Prepayments and accrued income (exc Government grants) (£000) - CD2</t>
+  </si>
+  <si>
+    <t>Accrued Government grants (£000) - CD3</t>
+  </si>
+  <si>
+    <t>VAT recoverable (£000) - CD4</t>
+  </si>
+  <si>
+    <t>Other debtors (£000) - CD5</t>
+  </si>
+  <si>
+    <t>Trade debtors before bad debt (£'000) - CD6</t>
+  </si>
+  <si>
+    <t>Prepayments and accrued income (exc Government grants) (£000) - CD7</t>
+  </si>
+  <si>
+    <t>Accrued Government grants (£000) - CD8</t>
+  </si>
+  <si>
+    <t>VAT recoverable (£000) - CD9</t>
+  </si>
+  <si>
+    <t>Other debtors (£000) - CD10</t>
+  </si>
+  <si>
+    <t>Loans within one year (£000) - CL1</t>
+  </si>
+  <si>
+    <t>Trade creditors (£000) - CL2</t>
+  </si>
+  <si>
+    <t>Other taxation and social security (£'000) - CL3</t>
+  </si>
+  <si>
+    <t>Finance lease creditors within one year (£000) - CL4</t>
+  </si>
+  <si>
+    <t>Other creditors within one year (£000) - CL5</t>
+  </si>
+  <si>
+    <t>VAT payable (£000) - CL6</t>
+  </si>
+  <si>
+    <t>Accruals and deferred income (excluding deferred Government grants) (£000) - CL7</t>
+  </si>
+  <si>
+    <t>Deferred Government grants (£000) - CL8</t>
+  </si>
+  <si>
+    <t>Loans (£000) - CL9</t>
+  </si>
+  <si>
+    <t>Finance lease creditors (£000) - CL10</t>
+  </si>
+  <si>
+    <t>Other creditors (£000) - CL11</t>
+  </si>
+  <si>
+    <t>Provisions (£000) - CL14</t>
+  </si>
+  <si>
+    <t>Pension scheme surplus/(deficit) (£000) - CL15</t>
+  </si>
+  <si>
+    <t>Donations (£000) - CTI1</t>
+  </si>
+  <si>
+    <t>Capital Grants - DfE (ESFA) (£'000) - CTI2</t>
+  </si>
+  <si>
+    <t>Capital Grants - DfE Group (£'000) - CTI3</t>
+  </si>
+  <si>
+    <t>Other capital grants (£000) - CTI4</t>
+  </si>
+  <si>
+    <t>Other trading activities (£000) - CTI5</t>
+  </si>
+  <si>
+    <t>Investment income (£000) - CTI6</t>
+  </si>
+  <si>
+    <t>Revenue Grants - DfE (£'000) - CTI7</t>
+  </si>
+  <si>
+    <t>Revenue Grants - DfE Group (£000) - CTI8</t>
+  </si>
+  <si>
+    <t>Other revenue grants (£000) - CTI9</t>
+  </si>
+  <si>
+    <t>Other income (£000) - CTI10</t>
+  </si>
+  <si>
+    <t>Provision of boarding activities (£000) - CTI11</t>
+  </si>
+  <si>
+    <t>Wages and salaries (£000) - CTE1</t>
+  </si>
+  <si>
+    <t>Employer's pension contributions (£000) - CTE2</t>
+  </si>
+  <si>
+    <t>Operating lease rentals - buildings (£000) - CTE3</t>
+  </si>
+  <si>
+    <t>Operating lease rentals - land (£000) - CTE4</t>
+  </si>
+  <si>
+    <t>Finance lease interest payments (£000) - CTE5</t>
+  </si>
+  <si>
+    <t>Rates (£'000) - CTE6</t>
+  </si>
+  <si>
+    <t>Purchase of goods and services (£000) - CTE7</t>
+  </si>
+  <si>
+    <t>Boarding activities (£000) - CTE8</t>
+  </si>
+  <si>
+    <t>Trade debtors before bad debt (£'000) - CTD1</t>
+  </si>
+  <si>
+    <t>Prepayments and accrued income (exc Government grants) (£000) - CTD2</t>
+  </si>
+  <si>
+    <t>Accrued Government grants (£000) - CTD3</t>
+  </si>
+  <si>
+    <t>VAT recoverable (£000) - CTD4</t>
+  </si>
+  <si>
+    <t>Other debtors (£000) - CTD5</t>
+  </si>
+  <si>
+    <t>Trade debtors before bad debt (£'000) - CTD6</t>
+  </si>
+  <si>
+    <t>Prepayments and accrued income (exc Government grants) (£000) - CTD7</t>
+  </si>
+  <si>
+    <t>Accrued Government grants (£000) - CTD8</t>
+  </si>
+  <si>
+    <t>VAT recoverable (£000) - CTD9</t>
+  </si>
+  <si>
+    <t>Other debtors (£000) - CTD10</t>
+  </si>
+  <si>
+    <t>Loans within one year (£000) - CTL1</t>
+  </si>
+  <si>
+    <t>Trade creditors (£000) - CTL2</t>
+  </si>
+  <si>
+    <t>Other taxation and social security (£'000) - CTL3</t>
+  </si>
+  <si>
+    <t>Finance lease creditors within one year (£000) - CTL4</t>
+  </si>
+  <si>
+    <t>Other creditors within one year (£000) - CTL5</t>
+  </si>
+  <si>
+    <t>VAT payable (£000) - CTL6</t>
+  </si>
+  <si>
+    <t>Accruals and deferred income (excluding deferred Government grants) (£000) - CTL7</t>
+  </si>
+  <si>
+    <t>Deferred Government grants (£000) - CTL8</t>
+  </si>
+  <si>
+    <t>Loans (£000) - CTL9</t>
+  </si>
+  <si>
+    <t>Finance lease creditors (£000) - CTL10</t>
+  </si>
+  <si>
+    <t>Other creditors (£000) - CTL11</t>
+  </si>
+  <si>
+    <t>Provisions (£000) - CTL14</t>
+  </si>
+  <si>
+    <t>Pension scheme surplus/(deficit) (£000) - CTL15</t>
+  </si>
+  <si>
+    <t>Accruals and deferred income (excluding deferred Government grants) (£000) - CTL12</t>
+  </si>
+  <si>
+    <t>Deferred Government grants (£000) - CTL13</t>
   </si>
 </sst>
 </file>
@@ -20151,7 +20419,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20175,14 +20443,10 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
-        <v>916</v>
-      </c>
+      <c r="A4" s="50"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
-        <v>917</v>
-      </c>
+      <c r="A5" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20191,14 +20455,561 @@
 
 <file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W43" sqref="W43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="40.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>969</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>977</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>987</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="I16:J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="70.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20234,6 +21045,31 @@
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1042</v>
       </c>
     </row>
   </sheetData>
@@ -44143,7 +44979,7 @@
   <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/dataSheetsResources/AR_DataSheet/AR3_DataSheetReferences.xlsx
+++ b/src/test/dataSheetsResources/AR_DataSheet/AR3_DataSheetReferences.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" firstSheet="99" activeTab="109"/>
+    <workbookView xWindow="-33600" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" firstSheet="102" activeTab="114"/>
   </bookViews>
   <sheets>
     <sheet name="s_Donations" sheetId="1" r:id="rId1"/>
@@ -122,6 +122,11 @@
     <sheet name="count_ct_Debtors" sheetId="110" r:id="rId108"/>
     <sheet name="count_ct_Liabilities" sheetId="111" r:id="rId109"/>
     <sheet name="count_ct_Other" sheetId="112" r:id="rId110"/>
+    <sheet name="tac_TfrIn" sheetId="113" r:id="rId111"/>
+    <sheet name="tac_TacTotal" sheetId="114" r:id="rId112"/>
+    <sheet name="tac_TfrOut" sheetId="115" r:id="rId113"/>
+    <sheet name="tac_NewelyConverted" sheetId="116" r:id="rId114"/>
+    <sheet name="SoFA_Summary" sheetId="117" r:id="rId115"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -136,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="1204">
   <si>
     <t>D1 - Donated Fixed Assets - DfE and ESFA (EFA)</t>
   </si>
@@ -3272,6 +3277,483 @@
   </si>
   <si>
     <t>Deferred Government grants (£000) - CTL13</t>
+  </si>
+  <si>
+    <t>Land (£000) - TI1</t>
+  </si>
+  <si>
+    <t>Buildings (£000) - TI2</t>
+  </si>
+  <si>
+    <t>Other Assets (£000) - TI3</t>
+  </si>
+  <si>
+    <t>Total (£000) - TI4</t>
+  </si>
+  <si>
+    <t>Intangible fixed assets (£000) - TI5</t>
+  </si>
+  <si>
+    <t>Non-current Investment (£000) - TI6</t>
+  </si>
+  <si>
+    <t>Current Investment (£000) - TI7</t>
+  </si>
+  <si>
+    <t>Total (£000) - TI8</t>
+  </si>
+  <si>
+    <t>Stock (£000) - TI9</t>
+  </si>
+  <si>
+    <t>Trade debtors before bad debt (£000) - TI10</t>
+  </si>
+  <si>
+    <t>Prepayments and accrued income (£000) - TI11</t>
+  </si>
+  <si>
+    <t>VAT (£000) - TI12</t>
+  </si>
+  <si>
+    <t>Other debtors (£000) - TI13</t>
+  </si>
+  <si>
+    <t>Total (£000) - TI14</t>
+  </si>
+  <si>
+    <t>Debtors more than one year (£000) - TI15</t>
+  </si>
+  <si>
+    <t>Cash at bank and in hand (£000) - TI16</t>
+  </si>
+  <si>
+    <t>Total Assets  - TI17</t>
+  </si>
+  <si>
+    <t>Bank overdrafts (£000) - TI18</t>
+  </si>
+  <si>
+    <t>Loans (£000) - TI19</t>
+  </si>
+  <si>
+    <t>Trade creditors (£000) - TI20</t>
+  </si>
+  <si>
+    <t>Other taxation and social security (£000) - TI21</t>
+  </si>
+  <si>
+    <t>Finance leases (£000) - TI22</t>
+  </si>
+  <si>
+    <t>VAT (£000) - TI23</t>
+  </si>
+  <si>
+    <t>Other creditors (£000) - TI24</t>
+  </si>
+  <si>
+    <t>Accruals and deferred income (£000) - TI25</t>
+  </si>
+  <si>
+    <t>Total (£000) - TI26</t>
+  </si>
+  <si>
+    <t>Loans (£000) - TI27</t>
+  </si>
+  <si>
+    <t>Finance leases (£000) - TI28</t>
+  </si>
+  <si>
+    <t>Other creditors (£000) - TI29</t>
+  </si>
+  <si>
+    <t>Total (£000) - TI30</t>
+  </si>
+  <si>
+    <t>Provisions for liabilities and charges (£000) - TI31</t>
+  </si>
+  <si>
+    <t>Total assets less trading liabilities - TI32</t>
+  </si>
+  <si>
+    <t>Pensions scheme surplus/(deficit) (£000) - TI33</t>
+  </si>
+  <si>
+    <t>Identifiable net assets/(liabilities) - TI34</t>
+  </si>
+  <si>
+    <t>Value Received - A</t>
+  </si>
+  <si>
+    <t>Adjustments - B</t>
+  </si>
+  <si>
+    <t>Value per Accounts - C</t>
+  </si>
+  <si>
+    <t>Land (£000) - TCT1</t>
+  </si>
+  <si>
+    <t>Buildings (£000) - TCT2</t>
+  </si>
+  <si>
+    <t>Other Assets (£000) - TCT3</t>
+  </si>
+  <si>
+    <t>Total (£000) - TCT4</t>
+  </si>
+  <si>
+    <t>Intangible fixed assets (£000) - TCT5</t>
+  </si>
+  <si>
+    <t>Current Investment (£000) - TCT7</t>
+  </si>
+  <si>
+    <t>Total (£000) - TCT8</t>
+  </si>
+  <si>
+    <t>Stock (£000) - TCT9</t>
+  </si>
+  <si>
+    <t>Trade debtors before bad debt (£000) - TCT10</t>
+  </si>
+  <si>
+    <t>Prepayments and accrued income (£000) - TCT11</t>
+  </si>
+  <si>
+    <t>VAT (£000) - TCT12</t>
+  </si>
+  <si>
+    <t>Other debtors (£000) - TCT13</t>
+  </si>
+  <si>
+    <t>Total (£000) - TCT14</t>
+  </si>
+  <si>
+    <t>Debtors after more than one year (£000) - TCT15</t>
+  </si>
+  <si>
+    <t>Cash at bank and in hand (£000) - TCT16</t>
+  </si>
+  <si>
+    <t>Total Assets (£000) - TCT17</t>
+  </si>
+  <si>
+    <t>Bank overdrafts (£000) - TCT18</t>
+  </si>
+  <si>
+    <t>Loans (£000) - TCT19</t>
+  </si>
+  <si>
+    <t>Trade creditors (£000) - TCT20</t>
+  </si>
+  <si>
+    <t>Other taxation and social security (£000) - TCT21</t>
+  </si>
+  <si>
+    <t>Finance leases (£000) - TCT22</t>
+  </si>
+  <si>
+    <t>VAT (£000) - TCT23</t>
+  </si>
+  <si>
+    <t>Other creditors (£000) - TCT24</t>
+  </si>
+  <si>
+    <t>Accruals and deferred income (£000) - TCT25</t>
+  </si>
+  <si>
+    <t>Total (£000) - TCT26</t>
+  </si>
+  <si>
+    <t>Loans (£000) - TCT27</t>
+  </si>
+  <si>
+    <t>Finance leases (£000) - TCT28</t>
+  </si>
+  <si>
+    <t>Other creditors (£000) - TCT29</t>
+  </si>
+  <si>
+    <t>Total (£000) - TCT30</t>
+  </si>
+  <si>
+    <t>Provisions for liabilities and charges (£000) - TCT31</t>
+  </si>
+  <si>
+    <t>Total assets less trading liabilities (£000) - TCT32</t>
+  </si>
+  <si>
+    <t>Pensions scheme surplus/(deficit) (£000) - TCT33</t>
+  </si>
+  <si>
+    <t>Identifiable net assets/(liabilities) (£000) - TCT34</t>
+  </si>
+  <si>
+    <t>Land (£000) - TO1</t>
+  </si>
+  <si>
+    <t>Buildings (£000) - TO2</t>
+  </si>
+  <si>
+    <t>Other Assets (£000) - TO3</t>
+  </si>
+  <si>
+    <t>Total (£000) - TO4</t>
+  </si>
+  <si>
+    <t>Intangible fixed assets (£000) - TO5</t>
+  </si>
+  <si>
+    <t>Non-current Investment (£000) - TO6</t>
+  </si>
+  <si>
+    <t>Current Investment (£000) - TO7</t>
+  </si>
+  <si>
+    <t>Total (£000) - TO8</t>
+  </si>
+  <si>
+    <t>Stock (£000) - TO9</t>
+  </si>
+  <si>
+    <t>Trade debtors before bad debt (£000) - TO10</t>
+  </si>
+  <si>
+    <t>Prepayments and accrued income (£000) - TO11</t>
+  </si>
+  <si>
+    <t>VAT (£000) - TO12</t>
+  </si>
+  <si>
+    <t>Other debtors (£000) - TO13</t>
+  </si>
+  <si>
+    <t>Total (£000) - TO14</t>
+  </si>
+  <si>
+    <t>Debtors more than one year (£000) - TO15</t>
+  </si>
+  <si>
+    <t>Cash at bank and in hand (£000) - TO16</t>
+  </si>
+  <si>
+    <t>Total Assets  - TO17</t>
+  </si>
+  <si>
+    <t>Bank overdrafts (£000) - TO18</t>
+  </si>
+  <si>
+    <t>Loans (£000) - TO19</t>
+  </si>
+  <si>
+    <t>Trade creditors (£000) - TO20</t>
+  </si>
+  <si>
+    <t>Other taxation and social security (£000) - TO21</t>
+  </si>
+  <si>
+    <t>Finance leases (£000) - TO22</t>
+  </si>
+  <si>
+    <t>VAT (£000) - TO23</t>
+  </si>
+  <si>
+    <t>Other creditors (£000) - TO24</t>
+  </si>
+  <si>
+    <t>Accruals and deferred income (£000) - TO25</t>
+  </si>
+  <si>
+    <t>Total (£000) - TO26</t>
+  </si>
+  <si>
+    <t>Loans (£000) - TO27</t>
+  </si>
+  <si>
+    <t>Finance leases (£000) - TO28</t>
+  </si>
+  <si>
+    <t>Other creditors (£000) - TO29</t>
+  </si>
+  <si>
+    <t>Total (£000) - TO30</t>
+  </si>
+  <si>
+    <t>Provisions for liabilities and charges (£000) - TO31</t>
+  </si>
+  <si>
+    <t>Total assets less trading liabilities - TO32</t>
+  </si>
+  <si>
+    <t>Pensions scheme surplus/(deficit) (£000) - TO33</t>
+  </si>
+  <si>
+    <t>Identifiable net assets/(liabilities) - TO34</t>
+  </si>
+  <si>
+    <t>Land (£000) - NC1</t>
+  </si>
+  <si>
+    <t>Buildings (£000) - NC2</t>
+  </si>
+  <si>
+    <t>Other Assets (£000) - NC3</t>
+  </si>
+  <si>
+    <t>Total (£000) - NC4</t>
+  </si>
+  <si>
+    <t>Intangible fixed assets (£000) - NC5</t>
+  </si>
+  <si>
+    <t>Non-current Investment (£000) - NC6</t>
+  </si>
+  <si>
+    <t>Current Investment (£000) - NC7</t>
+  </si>
+  <si>
+    <t>Total (£000) - NC8</t>
+  </si>
+  <si>
+    <t>Stock (£000) - NC9</t>
+  </si>
+  <si>
+    <t>Trade debtors before bad debt (£000) - NC10</t>
+  </si>
+  <si>
+    <t>Prepayments and accrued income (£000) - NC11</t>
+  </si>
+  <si>
+    <t>VAT (£000) - NC12</t>
+  </si>
+  <si>
+    <t>Other debtors (£000) - NC13</t>
+  </si>
+  <si>
+    <t>Total (£000) - NC14</t>
+  </si>
+  <si>
+    <t>Debtors more than one year (£000) - NC15</t>
+  </si>
+  <si>
+    <t>Cash at bank and in hand (£000) - NC16</t>
+  </si>
+  <si>
+    <t>Total Assets  - NC17</t>
+  </si>
+  <si>
+    <t>Bank overdrafts (£000) - NC18</t>
+  </si>
+  <si>
+    <t>Loans (£000) - NC19</t>
+  </si>
+  <si>
+    <t>Trade creditors (£000) - NC20</t>
+  </si>
+  <si>
+    <t>Other taxation and social security (£000) - NC21</t>
+  </si>
+  <si>
+    <t>Finance leases (£000) - NC22</t>
+  </si>
+  <si>
+    <t>VAT (£000) - NC23</t>
+  </si>
+  <si>
+    <t>Other creditors (£000) - NC24</t>
+  </si>
+  <si>
+    <t>Accruals and deferred income (£000) - NC25</t>
+  </si>
+  <si>
+    <t>Total (£000) - NC26</t>
+  </si>
+  <si>
+    <t>Loans (£000) - NC27</t>
+  </si>
+  <si>
+    <t>Finance leases (£000) - NC28</t>
+  </si>
+  <si>
+    <t>Other creditors (£000) - NC29</t>
+  </si>
+  <si>
+    <t>Total (£000) - NC30</t>
+  </si>
+  <si>
+    <t>Provisions for liabilities and charges (£000) - NC31</t>
+  </si>
+  <si>
+    <t>Total assets less trading liabailities - NC32</t>
+  </si>
+  <si>
+    <t>Pensions scheme surplus/(deficit) (£000) - NC33</t>
+  </si>
+  <si>
+    <t>Identifiable net assets/(liabilities) - NC34</t>
+  </si>
+  <si>
+    <t>Donations (£000) - SS1</t>
+  </si>
+  <si>
+    <t>Transfer on conversion from local authorities and elsewhere (£000) - SS2</t>
+  </si>
+  <si>
+    <t>Transfer of existing academies into the trust (£000) - SS3</t>
+  </si>
+  <si>
+    <t>Capital grants (£000) - SS4</t>
+  </si>
+  <si>
+    <t>Funding for the academy trust's educational operations (£000) - SS5</t>
+  </si>
+  <si>
+    <t>Provision of boarding activities (£000) - SS6</t>
+  </si>
+  <si>
+    <t>Other trading activities (£000) - SS7</t>
+  </si>
+  <si>
+    <t>Investments (£000) - SS8</t>
+  </si>
+  <si>
+    <t>Total (£000) - SS9</t>
+  </si>
+  <si>
+    <t>Raising funds (£000) - SS10</t>
+  </si>
+  <si>
+    <t>Transfer of existing academies out of the trust (£000) - SS11</t>
+  </si>
+  <si>
+    <t>Academy trust educational operations (£000) - SS12</t>
+  </si>
+  <si>
+    <t>Provision of boarding activities (£000) - SS13</t>
+  </si>
+  <si>
+    <t>Other (£000) - SS14</t>
+  </si>
+  <si>
+    <t>Total (£000) - SS15</t>
+  </si>
+  <si>
+    <t>Net income/(expenditure) (£000) - SS16</t>
+  </si>
+  <si>
+    <t>Transfers between funds (£000) - SS17</t>
+  </si>
+  <si>
+    <t>Actuarial gain/loss on pension fund (£000) - SS18</t>
+  </si>
+  <si>
+    <t>Valuation gain or loss on tangible and intangible fixed assets (£000) - SS19</t>
+  </si>
+  <si>
+    <t>Valuation gain or loss on investment portfolio (£000) - SS20</t>
+  </si>
+  <si>
+    <t>Net movement in funds (£000) - SS21</t>
   </si>
 </sst>
 </file>
@@ -3281,7 +3763,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ ;[Red]\(#,##0\);\ \-\ \ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3408,6 +3890,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3489,7 +3977,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3596,6 +4084,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -21056,7 +21547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -21070,6 +21561,886 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1042</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="35" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="35" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="35" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="35" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="35" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="35" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="35" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="35" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="35" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="35" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="35" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="35" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="35" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="35" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="35" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="35" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="35" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="35" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="35" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="35" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="35" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="52" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="52" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="52" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1203</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/dataSheetsResources/AR_DataSheet/AR3_DataSheetReferences.xlsx
+++ b/src/test/dataSheetsResources/AR_DataSheet/AR3_DataSheetReferences.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" firstSheet="102" activeTab="114"/>
+    <workbookView xWindow="-33600" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="s_Donations" sheetId="1" r:id="rId1"/>
@@ -149,9 +149,6 @@
     <t>D2 - Donated Fixed Assets (Non-DfE and ESFA (EFA))</t>
   </si>
   <si>
-    <t>D3 - Donated Intangible Assets </t>
-  </si>
-  <si>
     <t>D4 - Other Donations (Capital)</t>
   </si>
   <si>
@@ -3754,6 +3751,9 @@
   </si>
   <si>
     <t>Net movement in funds (£000) - SS21</t>
+  </si>
+  <si>
+    <t>D3 - Donated Intangible Assets (£000)</t>
   </si>
 </sst>
 </file>
@@ -4426,8 +4426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4446,33 +4446,33 @@
       </c>
     </row>
     <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="2" t="s">
+        <v>1203</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4496,13 +4496,13 @@
   <sheetData>
     <row r="1" spans="1:16384" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:16384" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="3"/>
@@ -20890,13 +20890,13 @@
     </row>
     <row r="3" spans="1:16384" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:16384" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="11"/>
     </row>
@@ -20920,17 +20920,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="51" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -20959,57 +20959,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
   </sheetData>
@@ -21029,42 +21029,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
   </sheetData>
@@ -21084,52 +21084,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
   </sheetData>
@@ -21149,57 +21149,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
   </sheetData>
@@ -21219,12 +21219,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
   </sheetData>
@@ -21247,57 +21247,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
   </sheetData>
@@ -21317,42 +21317,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
   </sheetData>
@@ -21372,52 +21372,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
   </sheetData>
@@ -21437,67 +21437,67 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
   </sheetData>
@@ -21520,22 +21520,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -21555,12 +21555,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
   </sheetData>
@@ -21583,187 +21583,187 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="35" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="35" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="35" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="35" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="35" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="35" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="35" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="35" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="35" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="35" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="35" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="35" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
   </sheetData>
@@ -21784,167 +21784,167 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
   </sheetData>
@@ -21967,172 +21967,172 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
   </sheetData>
@@ -22152,172 +22152,172 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
   </sheetData>
@@ -22329,7 +22329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -22340,107 +22340,107 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
   </sheetData>
@@ -22463,67 +22463,67 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -22546,192 +22546,192 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -22754,7 +22754,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -22777,62 +22777,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -22861,82 +22861,82 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -22985,172 +22985,172 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -23174,77 +23174,77 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -23267,42 +23267,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -23329,79 +23329,79 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5"/>
     </row>
@@ -23432,182 +23432,182 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -23631,22 +23631,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -23666,52 +23666,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -23735,73 +23735,73 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -23825,77 +23825,77 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -23919,62 +23919,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -23997,52 +23997,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -24065,22 +24065,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -24104,37 +24104,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -24154,7 +24154,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -24179,57 +24179,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="18" x14ac:dyDescent="0.2">
@@ -24318,122 +24318,122 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -24457,122 +24457,122 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -24595,127 +24595,127 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -24739,87 +24739,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -24849,82 +24849,82 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -24948,47 +24948,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -25012,72 +25012,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -25101,52 +25101,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -25169,47 +25169,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -25233,7 +25233,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -25260,25 +25260,25 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="10"/>
     </row>
@@ -25304,62 +25304,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -25383,27 +25383,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -25427,22 +25427,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -25465,117 +25465,117 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -25599,87 +25599,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -25703,77 +25703,77 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -25797,37 +25797,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -25847,7 +25847,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -25870,102 +25870,102 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -25988,67 +25988,67 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -26074,92 +26074,92 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -26189,77 +26189,77 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -26283,47 +26283,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -26347,37 +26347,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -26400,7 +26400,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -26423,97 +26423,97 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -26536,67 +26536,67 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -26619,42 +26619,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -26678,47 +26678,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -26742,22 +26742,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -26781,67 +26781,67 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -26867,57 +26867,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -26940,37 +26940,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -26994,77 +26994,77 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="40" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="41" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="42" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>
@@ -27087,62 +27087,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -27165,102 +27165,102 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -27284,67 +27284,67 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -27367,62 +27367,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -27446,7 +27446,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -27472,67 +27472,67 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -27555,47 +27555,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -27618,62 +27618,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="44" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="44" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="44" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="44" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="44" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="44" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="45" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -27697,37 +27697,37 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="10"/>
     </row>
@@ -27752,47 +27752,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -27815,42 +27815,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="46" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="46" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -27874,107 +27874,107 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="49" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="49" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="49" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="49" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="49" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="49" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="49" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="49" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="49" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="49" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="49" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="49" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="49" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="50" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="50" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
   </sheetData>
@@ -27997,72 +27997,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="47" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="48" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="48" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="48" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -28086,67 +28086,67 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -28169,62 +28169,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="47" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="48" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="48" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="48" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -28248,17 +28248,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>
@@ -28281,42 +28281,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -28339,27 +28339,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
   </sheetData>
@@ -28382,62 +28382,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -28461,43 +28461,43 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="11"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="11"/>
     </row>
@@ -28522,32 +28522,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
   </sheetData>
@@ -28570,7 +28570,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
   </sheetData>
@@ -28593,87 +28593,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>
@@ -28696,67 +28696,67 @@
   <sheetData>
     <row r="1" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="2" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="3" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="4" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="5" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="6" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="7" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="8" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="9" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="10" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="12" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="13" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B13" s="43"/>
       <c r="C13" s="43"/>
@@ -45144,7 +45144,7 @@
     </row>
     <row r="14" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
   </sheetData>
@@ -45168,82 +45168,82 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>
@@ -45267,27 +45267,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
   </sheetData>
@@ -45310,22 +45310,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
   </sheetData>
@@ -45348,32 +45348,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
   </sheetData>
@@ -45396,32 +45396,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
   </sheetData>
@@ -45444,52 +45444,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
   </sheetData>
@@ -45512,37 +45512,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -45565,22 +45565,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
   </sheetData>
@@ -45603,52 +45603,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
   </sheetData>
@@ -45671,52 +45671,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
   </sheetData>
@@ -45739,72 +45739,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="49" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="49" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="49" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="49" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="49" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="49" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="49" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="50" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="50" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
   </sheetData>
@@ -45828,27 +45828,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="51" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
   </sheetData>
@@ -45871,107 +45871,107 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
   </sheetData>
@@ -45994,187 +45994,187 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
   </sheetData>
@@ -46197,27 +46197,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="51" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
   </sheetData>
@@ -46237,107 +46237,107 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
   </sheetData>
@@ -46360,187 +46360,187 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/dataSheetsResources/AR_DataSheet/AR3_DataSheetReferences.xlsx
+++ b/src/test/dataSheetsResources/AR_DataSheet/AR3_DataSheetReferences.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" firstSheet="8" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" firstSheet="11" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="s_Donations" sheetId="1" r:id="rId1"/>
@@ -6859,7 +6859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -7002,7 +7002,7 @@
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7304,8 +7304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/dataSheetsResources/AR_DataSheet/AR3_DataSheetReferences.xlsx
+++ b/src/test/dataSheetsResources/AR_DataSheet/AR3_DataSheetReferences.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33580" yWindow="800" windowWidth="33600" windowHeight="20460" tabRatio="500" firstSheet="11" activeTab="16"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" firstSheet="14" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="s_Donations" sheetId="1" r:id="rId1"/>
@@ -6273,9 +6273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6481,7 +6479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>

--- a/src/test/dataSheetsResources/AR_DataSheet/AR3_DataSheetReferences.xlsx
+++ b/src/test/dataSheetsResources/AR_DataSheet/AR3_DataSheetReferences.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" firstSheet="14" activeTab="14"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" firstSheet="20" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="s_Donations" sheetId="1" r:id="rId1"/>
@@ -6273,7 +6273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7245,13 +7245,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>

--- a/src/test/dataSheetsResources/AR_DataSheet/AR3_DataSheetReferences.xlsx
+++ b/src/test/dataSheetsResources/AR_DataSheet/AR3_DataSheetReferences.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" firstSheet="20" activeTab="24"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" firstSheet="39" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="s_Donations" sheetId="1" r:id="rId1"/>
@@ -7245,7 +7245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7429,7 +7429,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8719,8 +8719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/dataSheetsResources/AR_DataSheet/AR3_DataSheetReferences.xlsx
+++ b/src/test/dataSheetsResources/AR_DataSheet/AR3_DataSheetReferences.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" firstSheet="39" activeTab="42"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" firstSheet="53" activeTab="62"/>
   </bookViews>
   <sheets>
     <sheet name="s_Donations" sheetId="1" r:id="rId1"/>
@@ -8719,7 +8719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10407,8 +10407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/dataSheetsResources/AR_DataSheet/AR3_DataSheetReferences.xlsx
+++ b/src/test/dataSheetsResources/AR_DataSheet/AR3_DataSheetReferences.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" firstSheet="53" activeTab="62"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" firstSheet="49" activeTab="49"/>
   </bookViews>
   <sheets>
     <sheet name="s_Donations" sheetId="1" r:id="rId1"/>
@@ -9434,7 +9434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -10407,7 +10407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
